--- a/data/trans_camb/P12A1_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 26,81</t>
+          <t>-3,08; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 50,14</t>
+          <t>-3,05; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 4,6</t>
+          <t>-2,75; 3,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 10,69</t>
+          <t>-2,76; 1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 13,06</t>
+          <t>-2,75; 1,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 38,53</t>
+          <t>-3,53; 0,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 1,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 1,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 1,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>-7,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-48,16%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>-36,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>-71,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-19,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-19,44%</t>
         </is>
       </c>
     </row>
@@ -715,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 269,22</t>
+          <t>-100,0; 678,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,68; 431,23</t>
+          <t>-100,0; 840,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 187,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 383,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-82,82; 207,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-81,32; 225,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-82,95; 167,65</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,3; -2,99</t>
+          <t>-4,64; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 1,8</t>
+          <t>-2,69; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 10,17</t>
+          <t>-2,72; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 9,29</t>
+          <t>-4,24; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 1,17</t>
+          <t>-3,77; 3,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 3,37</t>
+          <t>-4,5; 2,4</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 1,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 2,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 1,64</t>
         </is>
       </c>
     </row>
@@ -838,27 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-73,9%</t>
+          <t>-9,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-59,24%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>-17,53%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-41,57%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-21,07%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,88; 207,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-86,3; 159,43</t>
+          <t>-100,0; 428,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,9; 44,68</t>
+          <t>-85,64; 563,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,84; 74,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-94,47; 339,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-83,98; 279,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,68</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,25</t>
+          <t>23,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>24,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>29,15</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,28</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,76</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,92</t>
         </is>
       </c>
     </row>
@@ -951,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,18</t>
+          <t>0,0; 63,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,62</t>
+          <t>0,0; 65,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 69,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 37,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,99</t>
         </is>
       </c>
     </row>
@@ -999,20 +1180,35 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 19,68</t>
+          <t>-0,92; 10,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 32,58</t>
+          <t>-0,64; 12,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 4,0</t>
+          <t>-0,4; 14,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 6,08</t>
+          <t>-2,31; 1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 9,31</t>
+          <t>-2,12; 1,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 20,58</t>
+          <t>-2,51; 0,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 5,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 5,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>129,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>176,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>214,33%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-40,07%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-21,76%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-16,85%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>26,92%</t>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>66,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>67,08%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,81; 228,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 348,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 89,66</t>
+          <t>-48,68; 3669,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 151,25</t>
+          <t>-84,87; 165,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 109,47</t>
+          <t>-79,37; 184,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 214,19</t>
+          <t>-87,76; 114,14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-52,44; 412,56</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-38,43; 522,68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 485,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
